--- a/#AUTRES/Formulaires De Renseignement/genius-formulaire-de-renseignement-dut-informatique-aix (exemple).xlsx
+++ b/#AUTRES/Formulaires De Renseignement/genius-formulaire-de-renseignement-dut-informatique-aix (exemple).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personnel\Dropbox\_A Faire\_ (Sans Délai)\Genius\Formulaires De Renseignement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOUVEAU\Desktop\Genius\#AUTRES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36625DC5-7348-4460-8015-75F9A14D6B1C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC235E6-D114-4ECF-BA49-B12A39B31EBF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10575" yWindow="1065" windowWidth="14400" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="24120" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -792,26 +792,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="2"/>
-    <col min="10" max="10" width="23.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="33.28515625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="14.42578125" style="2"/>
+    <col min="1" max="1" width="32.265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.86328125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="31.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.86328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.3984375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" style="2"/>
+    <col min="10" max="10" width="23.86328125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="33.265625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="14.3984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -830,12 +830,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -846,7 +846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -857,12 +857,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -870,7 +870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -878,12 +878,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -900,7 +900,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -917,7 +917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -934,7 +934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -951,7 +951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
@@ -964,17 +964,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I15" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J16" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -982,7 +982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -990,13 +990,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="J19" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>38</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>41</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>45</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
@@ -1077,17 +1077,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J26" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I27" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>55</v>
       </c>
@@ -1103,13 +1103,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="J30" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>58</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="str">
         <f t="shared" ref="A33:A37" si="0">B21</f>
         <v>Programmation</v>
@@ -1141,7 +1141,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Développement Web et mobile</v>
@@ -1154,7 +1154,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Gestion de base de données</v>
@@ -1166,7 +1166,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Génie logiciel</v>
@@ -1178,7 +1178,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Administration systèmes et réseaux</v>
@@ -1190,12 +1190,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>41</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="str">
         <f>B21</f>
         <v>Programmation</v>
@@ -1225,7 +1225,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="str">
         <f>B21</f>
         <v>Programmation</v>
@@ -1241,7 +1241,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="str">
         <f>B21</f>
         <v>Programmation</v>
@@ -1257,7 +1257,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="str">
         <f t="shared" ref="A44:A45" si="2">B21</f>
         <v>Programmation</v>
@@ -1269,7 +1269,7 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="str">
         <f t="shared" si="2"/>
         <v>Développement Web et mobile</v>
@@ -1285,7 +1285,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="str">
         <f>B22</f>
         <v>Développement Web et mobile</v>
@@ -1297,7 +1297,7 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="str">
         <f t="shared" ref="A47:A48" si="4">B22</f>
         <v>Développement Web et mobile</v>
@@ -1309,7 +1309,7 @@
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="str">
         <f t="shared" si="4"/>
         <v>Gestion de base de données</v>
@@ -1325,7 +1325,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="str">
         <f t="shared" ref="A49:A50" si="6">B23</f>
         <v>Gestion de base de données</v>
@@ -1337,7 +1337,7 @@
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
     </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="str">
         <f t="shared" si="6"/>
         <v>Génie logiciel</v>
@@ -1349,12 +1349,12 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
     </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>41</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="str">
         <f>B21</f>
         <v>Programmation</v>
@@ -1398,7 +1398,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="str">
         <f>B21</f>
         <v>Programmation</v>
@@ -1418,7 +1418,7 @@
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="str">
         <f>B21</f>
         <v>Programmation</v>
@@ -1438,7 +1438,7 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="str">
         <f t="shared" ref="A57:A58" si="10">B21</f>
         <v>Programmation</v>
@@ -1462,7 +1462,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="str">
         <f t="shared" si="10"/>
         <v>Développement Web et mobile</v>
@@ -1482,12 +1482,12 @@
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="60" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>41</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="str">
         <f>B21</f>
         <v>Programmation</v>
@@ -1538,31 +1538,31 @@
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="str">
         <f>IF(B10="","",CONCATENATE("REPLACE INTO place(PlaceName) VALUES(""",B10,""");"))</f>
         <v>REPLACE INTO place(PlaceName) VALUES("Bureau avec PC");</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="str">
         <f>IF(B11="","",CONCATENATE("REPLACE INTO place(PlaceName) VALUES(""",B11,""");"))</f>
         <v>REPLACE INTO place(PlaceName) VALUES("Agence web");</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="str">
         <f>IF(B12="","",CONCATENATE("REPLACE INTO place(PlaceName) VALUES(""",B12,""");"))</f>
         <v>REPLACE INTO place(PlaceName) VALUES("Studio de jeu vidéo");</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="str">
         <f>IF(B13="","",CONCATENATE("REPLACE INTO place(PlaceName) VALUES(""",B13,""");"))</f>
         <v>REPLACE INTO place(PlaceName) VALUES("Electronique/Informatique/Mécanique");</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="str">
         <f>IF(B14="","",CONCATENATE("REPLACE INTO place(PlaceName) VALUES(""",B14,""");"))</f>
         <v/>
